--- a/Diccionario_Airbnb.xlsx
+++ b/Diccionario_Airbnb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiavillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C7069-04E2-D842-8B57-ED1DA3C4EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF6E912-572B-3348-9CC0-59A2CF9507E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario Airbnb" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>Field</t>
   </si>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>Número promedio de reseñas por mes</t>
+  </si>
+  <si>
+    <t>number_of_reviews_l</t>
+  </si>
+  <si>
+    <t>availability_eoy</t>
+  </si>
+  <si>
+    <t>Descriptor que indica cuándo y cómo el valor de la variable es significativo, específicamente al final del año.</t>
+  </si>
+  <si>
+    <t>Numero promedio de reseñas</t>
   </si>
 </sst>
 </file>
@@ -370,12 +382,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -405,10 +423,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,532 +736,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
